--- a/election_votar_data/LOHAGARA/KALAUZAN/152567/152567_com_1953_male_without_photo_109_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152567/152567_com_1953_male_without_photo_109_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="46.5" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="26.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -33033,7 +33033,7 @@
       </c>
       <c r="F776" s="3" t="inlineStr">
         <is>
-          <t>ক্ষুদ্র জন্ম তারিখ: ০১/০১/১৯৫৮</t>
+          <t>ক্ষুদ্র</t>
         </is>
       </c>
       <c r="G776" s="3" t="inlineStr">
@@ -38157,7 +38157,7 @@
       </c>
       <c r="F898" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ২৬/০৫/১৯৯৭</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G898" s="3" t="inlineStr">
@@ -54201,7 +54201,7 @@
       </c>
       <c r="F1280" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০১/০১/১৯৭১</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1280" s="3" t="inlineStr">
@@ -54579,7 +54579,7 @@
       </c>
       <c r="F1289" s="3" t="inlineStr">
         <is>
-          <t>ক্ষুদ্র জন্ম তারিখ: ২৫/০৯/১৯৬৯</t>
+          <t xml:space="preserve">ক্ষুদ্র </t>
         </is>
       </c>
       <c r="G1289" s="3" t="inlineStr">
@@ -65793,7 +65793,7 @@
       </c>
       <c r="F1556" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০১/০১/১৯৭৬</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1556" s="3" t="inlineStr">
@@ -69195,7 +69195,7 @@
       </c>
       <c r="F1637" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ২৮/১১/২০০৪</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1637" s="3" t="inlineStr">
@@ -80073,7 +80073,7 @@
       </c>
       <c r="F1896" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী জন্ম তারিখ: ১০/১০/১৯৯৫</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1896" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/KALAUZAN/152567/152567_com_1953_male_without_photo_109_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152567/152567_com_1953_male_without_photo_109_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="46.5" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="26.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -33033,7 +33033,7 @@
       </c>
       <c r="F776" s="3" t="inlineStr">
         <is>
-          <t>ক্ষুদ্র</t>
+          <t>ক্ষুদ্র জন্ম তারিখ: ০১/০১/১৯৫৮</t>
         </is>
       </c>
       <c r="G776" s="3" t="inlineStr">
@@ -38157,7 +38157,7 @@
       </c>
       <c r="F898" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ২৬/০৫/১৯৯৭</t>
         </is>
       </c>
       <c r="G898" s="3" t="inlineStr">
@@ -54201,7 +54201,7 @@
       </c>
       <c r="F1280" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০১/০১/১৯৭১</t>
         </is>
       </c>
       <c r="G1280" s="3" t="inlineStr">
@@ -54579,7 +54579,7 @@
       </c>
       <c r="F1289" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ক্ষুদ্র </t>
+          <t>ক্ষুদ্র জন্ম তারিখ: ২৫/০৯/১৯৬৯</t>
         </is>
       </c>
       <c r="G1289" s="3" t="inlineStr">
@@ -65793,7 +65793,7 @@
       </c>
       <c r="F1556" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০১/০১/১৯৭৬</t>
         </is>
       </c>
       <c r="G1556" s="3" t="inlineStr">
@@ -69195,7 +69195,7 @@
       </c>
       <c r="F1637" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ২৮/১১/২০০৪</t>
         </is>
       </c>
       <c r="G1637" s="3" t="inlineStr">
@@ -80073,7 +80073,7 @@
       </c>
       <c r="F1896" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী জন্ম তারিখ: ১০/১০/১৯৯৫</t>
         </is>
       </c>
       <c r="G1896" s="3" t="inlineStr">
